--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_beg.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">An Angry Zofia goes looking for Maria, trying to convince her to give up knight competition. Instead, she is convinced to become Maria’s coach.
+    <t xml:space="preserve">An Angry Zofia goes looking for Maria, trying to convince her to give up knight competition. Instead, she is convinced to become Maria's coach.
 </t>
   </si>
   <si>
